--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Desktop\Team8FinalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648C93C7-57B0-4115-87FE-5E40BEAEDF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF04503E-8248-4D12-86BC-C6029B44FBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{7C88147E-CFF1-4143-88EE-1CAF792E0E96}"/>
   </bookViews>
@@ -342,9 +342,6 @@
     <t>2 minutes, 3 seconds, 97 millisecondsDuration in milliseconds: 123097</t>
   </si>
   <si>
-    <t>1 minutes, 59 seconds, 957 millisecondsDuration in milliseconds: 119950</t>
-  </si>
-  <si>
     <t>1 minutes, 7 seconds, 760 millisecondsDuration in milliseconds: 67760</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>1 minutes, 36 seconds, 317 millisecondsDuration in milliseconds: 96317</t>
+  </si>
+  <si>
+    <t>1 minutes, 59 seconds, 950 millisecondsDuration in milliseconds: 119950</t>
   </si>
 </sst>
 </file>
@@ -396,9 +396,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,7 +715,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -952,7 +951,7 @@
       <c r="D32" t="s">
         <v>18</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1128,7 +1127,7 @@
         <v>44</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.35">
@@ -1141,7 +1140,7 @@
         <v>27</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.35">
@@ -1149,7 +1148,7 @@
         <v>95</v>
       </c>
       <c r="E62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.35">
@@ -1157,7 +1156,7 @@
         <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.35">
@@ -1165,7 +1164,7 @@
         <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.35">
@@ -1173,7 +1172,7 @@
         <v>98</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.35">
@@ -1181,7 +1180,7 @@
         <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
